--- a/biology/Histoire de la zoologie et de la botanique/Rose_Bracher/Rose_Bracher.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Rose_Bracher/Rose_Bracher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rose Bracher (née en 1894 à Salisbury et morte le 15 juillet 1941 à Bristol) est une botaniste britannique, chargée de cours à l'université de Bristol.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rose Bracher est née à Salisbury en 1894 ; son père, Reuben Bracher, est un enseignant connu dans la ville[1]. Elle accomplit ses études à l'université de Bristol où elle obtient une licence en 1917, suivie d'une maîtrise en 1918 et d'un doctorat en 1927[2]. Elle travaille comme démonstratrice à la London School of Medicine for Women (1918-1920). Bénéficiant d'une bourse Rose-Sidgwick, elle passe une année dans le Wisconsin, puis revient à Londres où elle est chargée de cours au East London College (1921-1924)[1]. En 1924, elle est nommée de chargée de cours à l'université de Bristol. En 1940, elle reçoit le titre de maître de conférences et, en 1941, elle devient la première femme non professeur à être élue au sénat académique (en) de l'Université, un mois avant sa mort inopinée à la suite d'une courte maladie[1]. Ses recherches portent sur l'écologie des vasières de la rivière Avon à Bristol et en particulier sur le genre Euglena[2],[3].
-Elle est élue membre de la Linnean Society of London en 1938[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rose Bracher est née à Salisbury en 1894 ; son père, Reuben Bracher, est un enseignant connu dans la ville. Elle accomplit ses études à l'université de Bristol où elle obtient une licence en 1917, suivie d'une maîtrise en 1918 et d'un doctorat en 1927. Elle travaille comme démonstratrice à la London School of Medicine for Women (1918-1920). Bénéficiant d'une bourse Rose-Sidgwick, elle passe une année dans le Wisconsin, puis revient à Londres où elle est chargée de cours au East London College (1921-1924). En 1924, elle est nommée de chargée de cours à l'université de Bristol. En 1940, elle reçoit le titre de maître de conférences et, en 1941, elle devient la première femme non professeur à être élue au sénat académique (en) de l'Université, un mois avant sa mort inopinée à la suite d'une courte maladie. Ses recherches portent sur l'écologie des vasières de la rivière Avon à Bristol et en particulier sur le genre Euglena,.
+Elle est élue membre de la Linnean Society of London en 1938.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'université de Bristol a créé un prix annuel à sa mémoire, le Rose Bracher Memorial Prize, qui récompense le meilleur étudiant en botanique, zoologie et biologie[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'université de Bristol a créé un prix annuel à sa mémoire, le Rose Bracher Memorial Prize, qui récompense le meilleur étudiant en botanique, zoologie et biologie.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ecology in Town and Classroom J.W. Arrowsmith, Bristol, 1937.
 A Book of Common Flowers, avec des illustrations de Dorothy Bromby, Oxford University Press, 1941.
